--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -1,36 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF6AD5F-73C7-4FDA-8F6D-4680B0BCC5EA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$B$12:$P$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$Q$39</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Part name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -43,12 +52,6 @@
     <t>Order Quantity</t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Batch Price</t>
-  </si>
-  <si>
     <t>DIN</t>
   </si>
   <si>
@@ -61,198 +64,51 @@
     <t>2020 Z Center Back 500</t>
   </si>
   <si>
-    <t>2040 X 420 T</t>
-  </si>
-  <si>
-    <t>2040 X 420 Tapped</t>
-  </si>
-  <si>
-    <t>2040 X Top 500</t>
-  </si>
-  <si>
-    <t>2040 X Top Support 500</t>
-  </si>
-  <si>
-    <t>2040 Y 460 T</t>
-  </si>
-  <si>
-    <t>2040 Y 460 Tapped</t>
-  </si>
-  <si>
     <t>2040 Z 700</t>
   </si>
   <si>
-    <t>2040 Z 700 No Tap</t>
-  </si>
-  <si>
-    <t>Bracket 2020 L</t>
-  </si>
-  <si>
     <t>2020 L Bracket</t>
   </si>
   <si>
-    <t xml:space="preserve"> $0.80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $8.00 </t>
-  </si>
-  <si>
-    <t>Bracket 2820 L</t>
-  </si>
-  <si>
     <t>2028 L Bracket</t>
   </si>
   <si>
-    <t xml:space="preserve"> $1.03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $33.00 </t>
-  </si>
-  <si>
     <t>Fasteners</t>
   </si>
   <si>
     <t>M5 T-Nut</t>
   </si>
   <si>
-    <t>OpenBuilds Tee Nut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $0.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $11.00 </t>
-  </si>
-  <si>
-    <t>M5 T-Bolt</t>
-  </si>
-  <si>
-    <t>Drop In T-Bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $0.40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $4.00 </t>
-  </si>
-  <si>
-    <t>M5 Drop in Nut</t>
-  </si>
-  <si>
     <t>Drop In T-Nut</t>
   </si>
   <si>
-    <t xml:space="preserve"> $0.30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $3.00 </t>
-  </si>
-  <si>
-    <t>M5 WASHER</t>
-  </si>
-  <si>
     <t>Stop Washer</t>
   </si>
   <si>
-    <t xml:space="preserve"> $0.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $10.00 </t>
-  </si>
-  <si>
-    <t>M5x10 BH</t>
-  </si>
-  <si>
     <t>Button Head Screw</t>
   </si>
   <si>
-    <t xml:space="preserve"> $0.21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $21.00 </t>
-  </si>
-  <si>
-    <t>M5x08 BH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $0.20 </t>
-  </si>
-  <si>
-    <t>Cuts</t>
-  </si>
-  <si>
-    <t>Precision Cuts</t>
-  </si>
-  <si>
-    <t>Extrusion Cut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $2.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $24.00 </t>
-  </si>
-  <si>
-    <t>2040 T-Slot 1500</t>
-  </si>
-  <si>
-    <t>2040 Total Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $23.20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $116.00 </t>
-  </si>
-  <si>
-    <t>2020 T-Slot 500</t>
-  </si>
-  <si>
-    <t>2020 Total Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $6.00 </t>
-  </si>
-  <si>
     <t>Kit</t>
   </si>
   <si>
-    <t>Valkyrie Frame Kit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $240.00 </t>
-  </si>
-  <si>
     <t>Shipping</t>
   </si>
   <si>
     <t>Add yours</t>
   </si>
   <si>
-    <t xml:space="preserve"> $30.00 </t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
     <t>Total Order Price Excl. VAT</t>
   </si>
   <si>
-    <t xml:space="preserve"> $270.00 </t>
-  </si>
-  <si>
     <t>Cut Length mm</t>
   </si>
   <si>
-    <t>Project Valkyrie</t>
-  </si>
-  <si>
     <t>Ultra Advanced - High End - High Temp - DIY CoreXY - 3D Printer</t>
   </si>
   <si>
-    <t>The Develompment Team</t>
-  </si>
-  <si>
     <t>Mark Bridgewater - NZ</t>
   </si>
   <si>
@@ -260,13 +116,133 @@
   </si>
   <si>
     <t>Roy Berntsen - NO</t>
+  </si>
+  <si>
+    <t>2GT 9mm Drive Belt</t>
+  </si>
+  <si>
+    <t>Develompment Team Members</t>
+  </si>
+  <si>
+    <t>Part Type</t>
+  </si>
+  <si>
+    <t>2040 X 420</t>
+  </si>
+  <si>
+    <t>2040 Y 460</t>
+  </si>
+  <si>
+    <t>2GT 11mm Smooth Idlers</t>
+  </si>
+  <si>
+    <t>2GT 11mm Toothed Idlers</t>
+  </si>
+  <si>
+    <t>2GT 11mm Pulleys</t>
+  </si>
+  <si>
+    <t>2GT 7mm Pulleys 80T</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Budget Batch Price $</t>
+  </si>
+  <si>
+    <t>Budget Unit Price $</t>
+  </si>
+  <si>
+    <t>HQ Unit Price $</t>
+  </si>
+  <si>
+    <t>HQ Batch Price $</t>
+  </si>
+  <si>
+    <t>HQ Parts Link</t>
+  </si>
+  <si>
+    <t>Budget Parts Link</t>
+  </si>
+  <si>
+    <t>PROJECT VALKYRIE</t>
+  </si>
+  <si>
+    <t>Motionparts</t>
+  </si>
+  <si>
+    <t>Valkyrie 3d Printer Kit</t>
+  </si>
+  <si>
+    <t>Steppermotor</t>
+  </si>
+  <si>
+    <t>NEMA 17 1.7A 0.9 40mm</t>
+  </si>
+  <si>
+    <t>Pulley</t>
+  </si>
+  <si>
+    <t>Idler</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>Bracket</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>T-Nut</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>Screw</t>
+  </si>
+  <si>
+    <t>T-Slot 2020</t>
+  </si>
+  <si>
+    <t>T-Slot 2040</t>
+  </si>
+  <si>
+    <t>T-Slot 2040 1500</t>
+  </si>
+  <si>
+    <t>T-Slot 2020 500</t>
+  </si>
+  <si>
+    <t>2040 Full Length</t>
+  </si>
+  <si>
+    <t>2020 Full Length</t>
+  </si>
+  <si>
+    <t>Extrusion Presicion Cut</t>
+  </si>
+  <si>
+    <t>Pulley Gear</t>
+  </si>
+  <si>
+    <t>2GT 20T-80T 4:1 Belt Gear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,12 +378,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="33">
@@ -591,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -711,43 +694,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -793,7 +739,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -805,7 +769,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -813,7 +779,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -825,29 +791,7 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -857,75 +801,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -938,18 +814,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -992,60 +912,76 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1079,6 +1015,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1113,7 +1050,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>151804</xdr:rowOff>
     </xdr:to>
@@ -1453,632 +1390,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="46">
+        <v>500</v>
+      </c>
+      <c r="F13" s="47">
+        <f>G13*E13</f>
+        <v>500</v>
+      </c>
+      <c r="G13" s="47">
+        <v>1</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="50"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3">
+        <v>420</v>
+      </c>
+      <c r="F14" s="18">
+        <f>G14*E14</f>
+        <v>1680</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
+        <v>460</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" ref="F15:F16" si="0">G15*E15</f>
+        <v>1840</v>
+      </c>
+      <c r="G15" s="18">
+        <v>4</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>700</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="G16" s="18">
+        <v>4</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="37">
+        <f>F14+F15+F16</f>
+        <v>6320</v>
+      </c>
+      <c r="G17" s="38">
+        <f>F17/E17</f>
+        <v>4.2133333333333329</v>
+      </c>
+      <c r="H17" s="39">
+        <v>5</v>
+      </c>
+      <c r="I17" s="25">
+        <v>23.2</v>
+      </c>
+      <c r="J17" s="27">
+        <f>H17*I17</f>
+        <v>116</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="36">
+        <f>F13</f>
+        <v>500</v>
+      </c>
+      <c r="G18" s="3">
+        <f>F18/E18</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23">
+        <v>6</v>
+      </c>
+      <c r="J18" s="22">
+        <f>H18*I18</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41">
+        <v>12</v>
+      </c>
+      <c r="H19" s="41">
+        <v>12</v>
+      </c>
+      <c r="I19" s="26">
+        <v>2</v>
+      </c>
+      <c r="J19" s="28">
+        <f>H19*I19</f>
+        <v>24</v>
+      </c>
+      <c r="K19" s="40"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
+        <v>6</v>
+      </c>
+      <c r="H20" s="18">
+        <v>10</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="22">
+        <f>H20*I20</f>
+        <v>8</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <v>32</v>
+      </c>
+      <c r="H21" s="18">
+        <v>32</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1.03</v>
+      </c>
+      <c r="J21" s="22">
+        <f t="shared" ref="J21:J34" si="1">H21*I21</f>
+        <v>32.96</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" s="11" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="H22" s="18">
+        <v>100</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0.11</v>
+      </c>
+      <c r="J22" s="22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
         <v>0</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="H23" s="18">
+        <v>50</v>
+      </c>
+      <c r="I23" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
+        <v>76</v>
+      </c>
+      <c r="H24" s="18">
+        <v>100</v>
+      </c>
+      <c r="I24" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
+        <v>76</v>
+      </c>
+      <c r="H25" s="18">
+        <v>100</v>
+      </c>
+      <c r="I25" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>20</v>
+      </c>
+      <c r="I26" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="18">
+        <v>6585</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19">
         <v>2</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="I27" s="23">
+        <v>22.25</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="1"/>
+        <v>44.5</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19">
+        <v>10</v>
+      </c>
+      <c r="H28" s="19">
+        <v>10</v>
+      </c>
+      <c r="I28" s="23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J28" s="22">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19">
+        <v>2</v>
+      </c>
+      <c r="H29" s="19">
+        <v>2</v>
+      </c>
+      <c r="I29" s="23">
+        <v>6</v>
+      </c>
+      <c r="J29" s="22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K29" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19">
+        <v>5</v>
+      </c>
+      <c r="H30" s="19">
+        <v>5</v>
+      </c>
+      <c r="I30" s="23">
+        <v>4</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19">
         <v>3</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="H31" s="19">
+        <v>3</v>
+      </c>
+      <c r="I31" s="23">
         <v>5</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="J31" s="22">
+        <f t="shared" ref="J31:J33" si="2">H31*I31</f>
+        <v>15</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="18">
+        <v>600</v>
+      </c>
+      <c r="G32" s="19">
+        <v>3</v>
+      </c>
+      <c r="H32" s="19">
+        <v>3</v>
+      </c>
+      <c r="I32" s="23">
+        <v>15</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19">
+        <v>3</v>
+      </c>
+      <c r="H33" s="19">
+        <v>3</v>
+      </c>
+      <c r="I33" s="23">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="J33" s="22">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="23">
         <v>11</v>
       </c>
-      <c r="E13" s="19">
-        <v>500</v>
-      </c>
-      <c r="F13" s="3">
-        <v>500</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="M33" s="22">
+        <f>L33*H33</f>
+        <v>33</v>
+      </c>
+      <c r="N33" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19">
+        <v>2</v>
+      </c>
+      <c r="H34" s="19">
+        <v>2</v>
+      </c>
+      <c r="I34" s="23">
         <v>13</v>
       </c>
-      <c r="E14" s="19">
-        <v>420</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1680</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="19">
-        <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="J34" s="22">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="23">
+        <v>13</v>
+      </c>
+      <c r="M34" s="22">
+        <f>L34*H34</f>
+        <v>26</v>
+      </c>
+      <c r="N34" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="19">
-        <v>460</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1840</v>
-      </c>
-      <c r="G16" s="3">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="C37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="21">
+        <f>SUM(J17:J34)</f>
+        <v>484.46000000000004</v>
+      </c>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="19">
-        <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="22">
+        <f>I38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>6</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
-        <v>32</v>
-      </c>
-      <c r="H19" s="3">
-        <v>32</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
-        <v>76</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>10</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
-        <v>76</v>
-      </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="28"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
-        <v>76</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="28"/>
-      <c r="L24" s="4">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>20</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="4">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <v>12</v>
-      </c>
-      <c r="H26" s="3">
-        <v>12</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="13">
-        <v>1500</v>
-      </c>
-      <c r="F27" s="21">
-        <v>6820</v>
-      </c>
-      <c r="G27" s="13">
-        <v>4.55</v>
-      </c>
-      <c r="H27" s="21">
-        <v>5</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="25"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="15">
-        <v>500</v>
-      </c>
-      <c r="F28" s="22">
-        <v>500</v>
-      </c>
-      <c r="G28" s="15">
-        <v>1</v>
-      </c>
-      <c r="H28" s="22">
-        <v>1</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" s="28"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="29">
+        <f>SUM(J37:J38)</f>
+        <v>484.46000000000004</v>
+      </c>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="B12:P12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K27" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="K28" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="K29" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="K30" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="K31" r:id="rId5" xr:uid="{06757AF8-9603-4FCC-9701-4BA0734925F5}"/>
+    <hyperlink ref="K32" r:id="rId6" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="N33" r:id="rId7" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="N34" r:id="rId8" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF6AD5F-73C7-4FDA-8F6D-4680B0BCC5EA}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF528A9F-6101-4860-904B-5643643B9544}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$B$12:$P$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$Q$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$Q$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Category</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>2GT 20T-80T 4:1 Belt Gear</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>20x20x18 Carbon Tube</t>
   </si>
 </sst>
 </file>
@@ -967,12 +973,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
@@ -980,6 +980,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1391,10 +1397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q39"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,46 +1423,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1476,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="8" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>0</v>
       </c>
@@ -1524,34 +1533,34 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="44">
         <v>500</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="45">
         <f>G13*E13</f>
         <v>500</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="45">
         <v>1</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="50"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="48"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
@@ -1806,7 +1815,7 @@
         <v>1.03</v>
       </c>
       <c r="J21" s="22">
-        <f t="shared" ref="J21:J34" si="1">H21*I21</f>
+        <f t="shared" ref="J21:J35" si="1">H21*I21</f>
         <v>32.96</v>
       </c>
       <c r="K21" s="3"/>
@@ -1818,30 +1827,36 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="18"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3">
+        <v>410</v>
+      </c>
+      <c r="F22" s="18">
+        <v>500</v>
+      </c>
       <c r="G22" s="18">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="H22" s="18">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I22" s="23">
-        <v>0.11</v>
+        <v>20</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="K22" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
@@ -1853,25 +1868,25 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H23" s="18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I23" s="23">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="J23" s="22">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="22"/>
@@ -1885,25 +1900,25 @@
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H24" s="18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I24" s="23">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J24" s="22">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="22"/>
@@ -1917,10 +1932,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="18"/>
@@ -1931,20 +1946,18 @@
         <v>100</v>
       </c>
       <c r="I25" s="23">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="J25" s="22">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4">
-        <v>7380</v>
-      </c>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
@@ -1959,17 +1972,17 @@
       <c r="E26" s="3"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="H26" s="18">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I26" s="23">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="J26" s="22">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="22"/>
@@ -1982,65 +1995,64 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="18">
-        <v>6585</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>20</v>
       </c>
       <c r="I27" s="23">
-        <v>22.25</v>
+        <v>0.2</v>
       </c>
       <c r="J27" s="22">
         <f t="shared" si="1"/>
-        <v>44.5</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>36</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K27" s="3"/>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="30"/>
+      <c r="P27" s="4">
+        <v>7380</v>
+      </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
+      <c r="F28" s="18">
+        <v>6585</v>
+      </c>
+      <c r="G28" s="19"/>
       <c r="H28" s="19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I28" s="23">
-        <v>4.0999999999999996</v>
+        <v>22.25</v>
       </c>
       <c r="J28" s="22">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>44.5</v>
       </c>
       <c r="K28" s="35" t="s">
         <v>36</v>
@@ -2060,22 +2072,22 @@
         <v>49</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="18"/>
       <c r="G29" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H29" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I29" s="23">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J29" s="22">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="K29" s="35" t="s">
         <v>36</v>
@@ -2085,31 +2097,32 @@
       <c r="N29" s="22"/>
       <c r="O29" s="3"/>
       <c r="P29" s="4"/>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30" s="23">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J30" s="22">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K30" s="35" t="s">
         <v>36</v>
@@ -2128,22 +2141,22 @@
         <v>48</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="18"/>
       <c r="G31" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" s="22">
-        <f t="shared" ref="J31:J33" si="2">H31*I31</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="K31" s="35" t="s">
         <v>36</v>
@@ -2159,17 +2172,13 @@
         <v>44</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="3">
-        <v>200</v>
-      </c>
-      <c r="F32" s="18">
-        <v>600</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="19">
         <v>3</v>
       </c>
@@ -2177,11 +2186,11 @@
         <v>3</v>
       </c>
       <c r="I32" s="23">
+        <v>5</v>
+      </c>
+      <c r="J32" s="22">
+        <f t="shared" ref="J32:J34" si="2">H32*I32</f>
         <v>15</v>
-      </c>
-      <c r="J32" s="22">
-        <f t="shared" si="2"/>
-        <v>45</v>
       </c>
       <c r="K32" s="35" t="s">
         <v>36</v>
@@ -2197,13 +2206,17 @@
         <v>44</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="18">
+        <v>600</v>
+      </c>
       <c r="G33" s="19">
         <v>3</v>
       </c>
@@ -2211,23 +2224,18 @@
         <v>3</v>
       </c>
       <c r="I33" s="23">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J33" s="22">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="23">
-        <v>11</v>
-      </c>
-      <c r="M33" s="22">
-        <f>L33*H33</f>
-        <v>33</v>
-      </c>
-      <c r="N33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="35" t="s">
         <v>36</v>
       </c>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="3"/>
       <c r="P33" s="4"/>
     </row>
@@ -2244,46 +2252,68 @@
       <c r="E34" s="3"/>
       <c r="F34" s="18"/>
       <c r="G34" s="19">
+        <v>3</v>
+      </c>
+      <c r="H34" s="19">
+        <v>3</v>
+      </c>
+      <c r="I34" s="23">
+        <v>11</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="23">
+        <v>11</v>
+      </c>
+      <c r="M34" s="22">
+        <f>L34*H34</f>
+        <v>33</v>
+      </c>
+      <c r="N34" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19">
         <v>2</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H35" s="19">
         <v>2</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I35" s="23">
         <v>13</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J35" s="22">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K34" s="35"/>
-      <c r="L34" s="23">
+      <c r="K35" s="35"/>
+      <c r="L35" s="23">
         <v>13</v>
       </c>
-      <c r="M34" s="22">
-        <f>L34*H34</f>
+      <c r="M35" s="22">
+        <f>L35*H35</f>
         <v>26</v>
       </c>
-      <c r="N34" s="44" t="s">
+      <c r="N35" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="44"/>
       <c r="O35" s="3"/>
       <c r="P35" s="4"/>
     </row>
@@ -2300,85 +2330,102 @@
       <c r="K36" s="35"/>
       <c r="L36" s="23"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="44"/>
+      <c r="N36" s="42"/>
       <c r="O36" s="3"/>
       <c r="P36" s="4"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="21">
-        <f>SUM(J17:J34)</f>
-        <v>484.46000000000004</v>
-      </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="21">
+        <f>SUM(J17:J35)</f>
+        <v>504.46000000000004</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="22">
-        <f>I38</f>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="22">
+        <f>I39</f>
         <v>0</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="29">
-        <f>SUM(J37:J38)</f>
-        <v>484.46000000000004</v>
-      </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="29">
+        <f>SUM(J38:J39)</f>
+        <v>504.46000000000004</v>
+      </c>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:P12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2387,17 +2434,18 @@
     <mergeCell ref="A2:Q2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K27" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="K28" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="K29" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="K30" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="K31" r:id="rId5" xr:uid="{06757AF8-9603-4FCC-9701-4BA0734925F5}"/>
-    <hyperlink ref="K32" r:id="rId6" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="N33" r:id="rId7" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="N34" r:id="rId8" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="K28" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="K29" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="K30" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="K31" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="K32" r:id="rId5" xr:uid="{06757AF8-9603-4FCC-9701-4BA0734925F5}"/>
+    <hyperlink ref="K33" r:id="rId6" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="N34" r:id="rId7" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="N35" r:id="rId8" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="K22" r:id="rId9" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF528A9F-6101-4860-904B-5643643B9544}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1D8E77B-077B-4F74-9090-2EB75465FA72}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$B$12:$P$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$Q$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$40</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,14 +35,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+  <si>
+    <t>PROJECT VALKYRIE</t>
+  </si>
+  <si>
+    <t>Develompment Team Members</t>
+  </si>
+  <si>
+    <t>Mark Bridgewater - NZ</t>
+  </si>
+  <si>
+    <t>Chris Lombardi - US</t>
+  </si>
+  <si>
+    <t>Roy Berntsen - NO</t>
+  </si>
   <si>
     <t>Category</t>
   </si>
   <si>
+    <t>Part Type</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Cut Length mm</t>
+  </si>
+  <si>
     <t>Total mm</t>
   </si>
   <si>
@@ -52,6 +73,24 @@
     <t>Order Quantity</t>
   </si>
   <si>
+    <t>Budget Unit Price $</t>
+  </si>
+  <si>
+    <t>Budget Batch Price $</t>
+  </si>
+  <si>
+    <t>Budget Parts Link</t>
+  </si>
+  <si>
+    <t>HQ Unit Price $</t>
+  </si>
+  <si>
+    <t>HQ Batch Price $</t>
+  </si>
+  <si>
+    <t>HQ Parts Link</t>
+  </si>
+  <si>
     <t>DIN</t>
   </si>
   <si>
@@ -61,181 +100,151 @@
     <t>Hardware</t>
   </si>
   <si>
+    <t>T-Slot 2020</t>
+  </si>
+  <si>
     <t>2020 Z Center Back 500</t>
   </si>
   <si>
+    <t>T-Slot 2040</t>
+  </si>
+  <si>
+    <t>2040 X 420</t>
+  </si>
+  <si>
+    <t>2040 Y 460</t>
+  </si>
+  <si>
     <t>2040 Z 700</t>
   </si>
   <si>
+    <t>T-Slot 2040 1500</t>
+  </si>
+  <si>
+    <t>2040 Full Length</t>
+  </si>
+  <si>
+    <t>T-Slot 2020 500</t>
+  </si>
+  <si>
+    <t>2020 Full Length</t>
+  </si>
+  <si>
+    <t>Extrusion Presicion Cut</t>
+  </si>
+  <si>
+    <t>Bracket</t>
+  </si>
+  <si>
     <t>2020 L Bracket</t>
   </si>
   <si>
     <t>2028 L Bracket</t>
   </si>
   <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>20x20x18 Carbon Tube</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t>Fasteners</t>
   </si>
   <si>
+    <t>Nut</t>
+  </si>
+  <si>
     <t>M5 T-Nut</t>
   </si>
   <si>
+    <t>T-Nut</t>
+  </si>
+  <si>
     <t>Drop In T-Nut</t>
   </si>
   <si>
+    <t>Washer</t>
+  </si>
+  <si>
     <t>Stop Washer</t>
   </si>
   <si>
+    <t>Screw</t>
+  </si>
+  <si>
     <t>Button Head Screw</t>
   </si>
   <si>
+    <t>Motionparts</t>
+  </si>
+  <si>
+    <t>Belt</t>
+  </si>
+  <si>
+    <t>2GT 9mm Drive Belt</t>
+  </si>
+  <si>
+    <t>Idler</t>
+  </si>
+  <si>
+    <t>2GT 11mm Smooth Idlers</t>
+  </si>
+  <si>
+    <t>2GT 11mm Toothed Idlers</t>
+  </si>
+  <si>
+    <t>Pulley</t>
+  </si>
+  <si>
+    <t>2GT 11mm Pulleys</t>
+  </si>
+  <si>
+    <t>Pulley Gear</t>
+  </si>
+  <si>
+    <t>2GT 20T-80T 4:1 Belt Gear</t>
+  </si>
+  <si>
+    <t>Steppermotor</t>
+  </si>
+  <si>
+    <t>NEMA 17 1.7A 0.9 40mm</t>
+  </si>
+  <si>
     <t>Kit</t>
   </si>
   <si>
+    <t>Valkyrie 3d Printer Kit</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Shipping</t>
   </si>
   <si>
     <t>Add yours</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Total Order Price Excl. VAT</t>
   </si>
   <si>
-    <t>Cut Length mm</t>
-  </si>
-  <si>
-    <t>Ultra Advanced - High End - High Temp - DIY CoreXY - 3D Printer</t>
-  </si>
-  <si>
-    <t>Mark Bridgewater - NZ</t>
-  </si>
-  <si>
-    <t>Chris Lombardi - US</t>
-  </si>
-  <si>
-    <t>Roy Berntsen - NO</t>
-  </si>
-  <si>
-    <t>2GT 9mm Drive Belt</t>
-  </si>
-  <si>
-    <t>Develompment Team Members</t>
-  </si>
-  <si>
-    <t>Part Type</t>
-  </si>
-  <si>
-    <t>2040 X 420</t>
-  </si>
-  <si>
-    <t>2040 Y 460</t>
-  </si>
-  <si>
-    <t>2GT 11mm Smooth Idlers</t>
-  </si>
-  <si>
-    <t>2GT 11mm Toothed Idlers</t>
-  </si>
-  <si>
-    <t>2GT 11mm Pulleys</t>
-  </si>
-  <si>
-    <t>2GT 7mm Pulleys 80T</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Budget Batch Price $</t>
-  </si>
-  <si>
-    <t>Budget Unit Price $</t>
-  </si>
-  <si>
-    <t>HQ Unit Price $</t>
-  </si>
-  <si>
-    <t>HQ Batch Price $</t>
-  </si>
-  <si>
-    <t>HQ Parts Link</t>
-  </si>
-  <si>
-    <t>Budget Parts Link</t>
-  </si>
-  <si>
-    <t>PROJECT VALKYRIE</t>
-  </si>
-  <si>
-    <t>Motionparts</t>
-  </si>
-  <si>
-    <t>Valkyrie 3d Printer Kit</t>
-  </si>
-  <si>
-    <t>Steppermotor</t>
-  </si>
-  <si>
-    <t>NEMA 17 1.7A 0.9 40mm</t>
-  </si>
-  <si>
-    <t>Pulley</t>
-  </si>
-  <si>
-    <t>Idler</t>
-  </si>
-  <si>
-    <t>Belt</t>
-  </si>
-  <si>
-    <t>Bracket</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>T-Nut</t>
-  </si>
-  <si>
-    <t>Washer</t>
-  </si>
-  <si>
-    <t>Screw</t>
-  </si>
-  <si>
-    <t>T-Slot 2020</t>
-  </si>
-  <si>
-    <t>T-Slot 2040</t>
-  </si>
-  <si>
-    <t>T-Slot 2040 1500</t>
-  </si>
-  <si>
-    <t>T-Slot 2020 500</t>
-  </si>
-  <si>
-    <t>2040 Full Length</t>
-  </si>
-  <si>
-    <t>2020 Full Length</t>
-  </si>
-  <si>
-    <t>Extrusion Presicion Cut</t>
-  </si>
-  <si>
-    <t>Pulley Gear</t>
-  </si>
-  <si>
-    <t>2GT 20T-80T 4:1 Belt Gear</t>
-  </si>
-  <si>
-    <t>Tube</t>
-  </si>
-  <si>
-    <t>20x20x18 Carbon Tube</t>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Controller Board</t>
+  </si>
+  <si>
+    <t>5x35mm Bearing Shaft</t>
+  </si>
+  <si>
+    <t>35mm 6PC</t>
+  </si>
+  <si>
+    <t>Rod</t>
   </si>
 </sst>
 </file>
@@ -920,11 +929,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -934,28 +942,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -965,9 +961,7 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -977,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,6 +980,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1050,15 +1056,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>151804</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>132754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1081,14 +1087,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3086101" y="533400"/>
-          <a:ext cx="2962274" cy="1666279"/>
+          <a:off x="4010026" y="323850"/>
+          <a:ext cx="2962273" cy="1666279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,1049 +1405,1064 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="31">
+        <v>500</v>
+      </c>
+      <c r="E12" s="32">
+        <f>F12*D12</f>
+        <v>500</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C13" s="38" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D13" s="38">
+        <v>420</v>
+      </c>
+      <c r="E13" s="39">
+        <f>F13*D13</f>
+        <v>1680</v>
+      </c>
+      <c r="F13" s="39">
+        <v>4</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D14" s="38">
+        <v>460</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" ref="E14:E15" si="0">F14*D14</f>
+        <v>1840</v>
+      </c>
+      <c r="F14" s="39">
+        <v>4</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" s="8" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="44">
-        <v>500</v>
-      </c>
-      <c r="F13" s="45">
-        <f>G13*E13</f>
-        <v>500</v>
-      </c>
-      <c r="G13" s="45">
-        <v>1</v>
-      </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="48"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3">
-        <v>420</v>
-      </c>
-      <c r="F14" s="18">
-        <f>G14*E14</f>
-        <v>1680</v>
-      </c>
-      <c r="G14" s="18">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3">
-        <v>460</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" ref="F15:F16" si="0">G15*E15</f>
-        <v>1840</v>
-      </c>
-      <c r="G15" s="18">
-        <v>4</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D15" s="38">
         <v>700</v>
       </c>
-      <c r="F16" s="18">
+      <c r="E15" s="39">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G16" s="18">
+      <c r="F15" s="39">
         <v>4</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8">
         <v>1500</v>
       </c>
-      <c r="F17" s="37">
-        <f>F14+F15+F16</f>
+      <c r="E16" s="24">
+        <f>E13+E14+E15</f>
         <v>6320</v>
       </c>
-      <c r="G17" s="38">
-        <f>F17/E17</f>
+      <c r="F16" s="25">
+        <f>E16/D16</f>
         <v>4.2133333333333329</v>
       </c>
-      <c r="H17" s="39">
+      <c r="G16" s="26">
         <v>5</v>
       </c>
-      <c r="I17" s="25">
+      <c r="H16" s="15">
         <v>23.2</v>
       </c>
-      <c r="J17" s="27">
-        <f>H17*I17</f>
+      <c r="I16" s="17">
+        <f>G16*H16</f>
         <v>116</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="38">
         <v>500</v>
       </c>
-      <c r="F18" s="36">
-        <f>F13</f>
+      <c r="E17" s="42">
+        <f>E12</f>
         <v>500</v>
       </c>
-      <c r="G18" s="3">
-        <f>F18/E18</f>
+      <c r="F17" s="38">
+        <f>E17/D17</f>
         <v>1</v>
       </c>
-      <c r="H18" s="11">
+      <c r="G17" s="43">
         <v>1</v>
       </c>
-      <c r="I18" s="23">
+      <c r="H17" s="40">
         <v>6</v>
       </c>
-      <c r="J18" s="22">
-        <f>H18*I18</f>
+      <c r="I17" s="41">
+        <f>G17*H17</f>
         <v>6</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41">
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28">
         <v>12</v>
       </c>
-      <c r="H19" s="41">
+      <c r="G18" s="28">
         <v>12</v>
       </c>
-      <c r="I19" s="26">
+      <c r="H18" s="16">
         <v>2</v>
       </c>
-      <c r="J19" s="28">
-        <f>H19*I19</f>
+      <c r="I18" s="18">
+        <f>G18*H18</f>
         <v>24</v>
       </c>
-      <c r="K19" s="40"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39">
+        <v>6</v>
+      </c>
+      <c r="G19" s="39">
         <v>10</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
-        <v>6</v>
-      </c>
-      <c r="H20" s="18">
-        <v>10</v>
-      </c>
-      <c r="I20" s="24">
+      <c r="H19" s="44">
         <v>0.8</v>
       </c>
-      <c r="J20" s="22">
-        <f>H20*I20</f>
+      <c r="I19" s="41">
+        <f>G19*H19</f>
         <v>8</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39">
+        <v>32</v>
+      </c>
+      <c r="G20" s="39">
+        <v>32</v>
+      </c>
+      <c r="H20" s="40">
+        <v>1.03</v>
+      </c>
+      <c r="I20" s="41">
+        <f t="shared" ref="I20:I35" si="1">G20*H20</f>
+        <v>32.96</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="38"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="20"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>32</v>
-      </c>
-      <c r="H21" s="18">
-        <v>32</v>
-      </c>
-      <c r="I21" s="23">
-        <v>1.03</v>
-      </c>
-      <c r="J21" s="22">
-        <f t="shared" ref="J21:J35" si="1">H21*I21</f>
-        <v>32.96</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="38">
         <v>410</v>
       </c>
-      <c r="F22" s="18">
+      <c r="E21" s="39">
         <v>500</v>
       </c>
-      <c r="G22" s="18">
+      <c r="F21" s="39">
         <v>1</v>
       </c>
-      <c r="H22" s="18">
+      <c r="G21" s="39">
         <v>1</v>
       </c>
-      <c r="I22" s="23">
+      <c r="H21" s="40">
         <v>20</v>
       </c>
-      <c r="J22" s="22">
+      <c r="I21" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K22" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="J21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="38">
+        <v>35</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39">
+        <v>12</v>
+      </c>
+      <c r="G22" s="39">
+        <v>2</v>
+      </c>
+      <c r="H22" s="40">
+        <v>3</v>
+      </c>
+      <c r="I22" s="41">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="38"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39">
         <v>76</v>
       </c>
-      <c r="H23" s="18">
+      <c r="G23" s="39">
         <v>100</v>
       </c>
-      <c r="I23" s="23">
+      <c r="H23" s="40">
         <v>0.11</v>
       </c>
-      <c r="J23" s="22">
+      <c r="I23" s="41">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39">
         <v>0</v>
       </c>
-      <c r="H24" s="18">
+      <c r="G24" s="39">
         <v>50</v>
       </c>
-      <c r="I24" s="23">
+      <c r="H24" s="40">
         <v>0.3</v>
       </c>
-      <c r="J24" s="22">
+      <c r="I24" s="41">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="38"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39">
         <v>76</v>
       </c>
-      <c r="H25" s="18">
+      <c r="G25" s="39">
         <v>100</v>
       </c>
-      <c r="I25" s="23">
+      <c r="H25" s="40">
         <v>0.1</v>
       </c>
-      <c r="J25" s="22">
+      <c r="I25" s="41">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39">
         <v>76</v>
       </c>
-      <c r="H26" s="18">
+      <c r="G26" s="39">
         <v>100</v>
       </c>
-      <c r="I26" s="23">
+      <c r="H26" s="40">
         <v>0.21</v>
       </c>
-      <c r="J26" s="22">
+      <c r="I26" s="41">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="4">
+      <c r="J26" s="38"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="3">
         <v>7380</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39">
         <v>0</v>
       </c>
-      <c r="H27" s="18">
+      <c r="G27" s="39">
         <v>20</v>
       </c>
-      <c r="I27" s="23">
+      <c r="H27" s="40">
         <v>0.2</v>
       </c>
-      <c r="J27" s="22">
+      <c r="I27" s="41">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="4">
+      <c r="J27" s="38"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="3">
         <v>7380</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="38">
         <v>100</v>
       </c>
-      <c r="F28" s="18">
+      <c r="E29" s="39">
         <v>6585</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19">
+      <c r="F29" s="39"/>
+      <c r="G29" s="39">
         <v>2</v>
       </c>
-      <c r="I28" s="23">
+      <c r="H29" s="40">
         <v>22.25</v>
       </c>
-      <c r="J28" s="22">
+      <c r="I29" s="41">
         <f t="shared" si="1"/>
         <v>44.5</v>
       </c>
-      <c r="K28" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="30"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19">
+      <c r="J29" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39">
         <v>10</v>
       </c>
-      <c r="H29" s="19">
+      <c r="G30" s="39">
         <v>10</v>
       </c>
-      <c r="I29" s="23">
+      <c r="H30" s="40">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J29" s="22">
+      <c r="I30" s="41">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K29" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="30"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19">
+      <c r="J30" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39">
         <v>2</v>
       </c>
-      <c r="H30" s="19">
+      <c r="G31" s="39">
         <v>2</v>
       </c>
-      <c r="I30" s="23">
+      <c r="H31" s="40">
         <v>6</v>
       </c>
-      <c r="J30" s="22">
+      <c r="I31" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K30" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19">
+      <c r="J31" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39">
         <v>5</v>
       </c>
-      <c r="H31" s="19">
+      <c r="G32" s="39">
         <v>5</v>
       </c>
-      <c r="I31" s="23">
+      <c r="H32" s="40">
         <v>4</v>
       </c>
-      <c r="J31" s="22">
+      <c r="I32" s="41">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K31" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19">
+      <c r="J32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="38">
+        <v>200</v>
+      </c>
+      <c r="E33" s="39">
+        <v>600</v>
+      </c>
+      <c r="F33" s="39">
         <v>3</v>
       </c>
-      <c r="H32" s="19">
+      <c r="G33" s="39">
         <v>3</v>
       </c>
-      <c r="I32" s="23">
-        <v>5</v>
-      </c>
-      <c r="J32" s="22">
-        <f t="shared" ref="J32:J34" si="2">H32*I32</f>
+      <c r="H33" s="40">
         <v>15</v>
       </c>
-      <c r="K32" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="3">
-        <v>200</v>
-      </c>
-      <c r="F33" s="18">
-        <v>600</v>
-      </c>
-      <c r="G33" s="19">
+      <c r="I33" s="41">
+        <f t="shared" ref="I33:I34" si="2">G33*H33</f>
+        <v>45</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39">
         <v>3</v>
       </c>
-      <c r="H33" s="19">
+      <c r="G34" s="39">
         <v>3</v>
       </c>
-      <c r="I33" s="23">
-        <v>15</v>
-      </c>
-      <c r="J33" s="22">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19">
-        <v>3</v>
-      </c>
-      <c r="H34" s="19">
-        <v>3</v>
-      </c>
-      <c r="I34" s="23">
+      <c r="H34" s="40">
         <v>11</v>
       </c>
-      <c r="J34" s="22">
+      <c r="I34" s="41">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="K34" s="35"/>
-      <c r="L34" s="23">
+      <c r="J34" s="23"/>
+      <c r="K34" s="40">
         <v>11</v>
       </c>
-      <c r="M34" s="22">
-        <f>L34*H34</f>
+      <c r="L34" s="41">
+        <f>K34*G34</f>
         <v>33</v>
       </c>
-      <c r="N34" s="42" t="s">
-        <v>36</v>
-      </c>
+      <c r="M34" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="38"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="17" t="s">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19">
+      <c r="B35" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39">
         <v>2</v>
       </c>
-      <c r="H35" s="19">
+      <c r="G35" s="39">
         <v>2</v>
       </c>
-      <c r="I35" s="23">
+      <c r="H35" s="40">
         <v>13</v>
       </c>
-      <c r="J35" s="22">
+      <c r="I35" s="41">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="23">
+      <c r="J35" s="23"/>
+      <c r="K35" s="40">
         <v>13</v>
       </c>
-      <c r="M35" s="22">
-        <f>L35*H35</f>
+      <c r="L35" s="41">
+        <f>K35*G35</f>
         <v>26</v>
       </c>
-      <c r="N35" s="42" t="s">
-        <v>36</v>
-      </c>
+      <c r="M35" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" s="38"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="42"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="38"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="42"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="38"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="21">
-        <f>SUM(J17:J35)</f>
-        <v>504.46000000000004</v>
-      </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="22">
-        <f>I39</f>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="46">
+        <f>SUM(I16:I35)</f>
+        <v>495.46000000000004</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="41">
+        <f>H39</f>
         <v>0</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="38"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="29">
-        <f>SUM(J38:J39)</f>
-        <v>504.46000000000004</v>
-      </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
+        <v>64</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="19">
+        <f>SUM(I38:I39)</f>
+        <v>495.46000000000004</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="5"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B12:P12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K28" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="K29" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="K30" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="K31" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="K32" r:id="rId5" xr:uid="{06757AF8-9603-4FCC-9701-4BA0734925F5}"/>
-    <hyperlink ref="K33" r:id="rId6" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="N34" r:id="rId7" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="N35" r:id="rId8" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
-    <hyperlink ref="K22" r:id="rId9" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
+    <hyperlink ref="J29" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J30" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J31" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J32" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J33" r:id="rId5" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M34" r:id="rId6" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M35" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J21" r:id="rId8" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
+    <hyperlink ref="J22" r:id="rId9" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId10"/>

--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1D8E77B-077B-4F74-9090-2EB75465FA72}"/>
+  <xr:revisionPtr revIDLastSave="507" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37930772-A57B-42A0-AB46-5584C29BE808}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$39</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -151,6 +151,15 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>5x35mm Bearing Shaft</t>
+  </si>
+  <si>
+    <t>2x 35mm 6PC</t>
+  </si>
+  <si>
     <t>Fasteners</t>
   </si>
   <si>
@@ -178,6 +187,18 @@
     <t>Button Head Screw</t>
   </si>
   <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Controller Board</t>
+  </si>
+  <si>
+    <t>BTT Octopus V1.1</t>
+  </si>
+  <si>
+    <t>W/TMC2209 x8</t>
+  </si>
+  <si>
     <t>Motionparts</t>
   </si>
   <si>
@@ -223,28 +244,7 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Add yours</t>
-  </si>
-  <si>
     <t>Total Order Price Excl. VAT</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>Controller Board</t>
-  </si>
-  <si>
-    <t>5x35mm Bearing Shaft</t>
-  </si>
-  <si>
-    <t>35mm 6PC</t>
-  </si>
-  <si>
-    <t>Rod</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,7 +929,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -974,6 +974,15 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,17 +990,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1405,87 +1404,87 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:15" ht="26.25">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="30" t="s">
         <v>20</v>
       </c>
@@ -1562,97 +1561,91 @@
       <c r="N12" s="31"/>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13">
         <v>420</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="36">
         <f>F13*D13</f>
         <v>1680</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="36">
         <v>4</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="38"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14">
         <v>460</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="36">
         <f t="shared" ref="E14:E15" si="0">F14*D14</f>
         <v>1840</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="36">
         <v>4</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="38"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15">
         <v>700</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="36">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <v>4</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="38"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1690,45 +1683,44 @@
       <c r="N16" s="8"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17">
         <v>500</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="39">
         <f>E12</f>
         <v>500</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17">
         <f>E17/D17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="37">
         <v>6</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="38">
         <f>G17*H17</f>
         <v>6</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -1760,692 +1752,635 @@
       <c r="N18" s="27"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36">
         <v>6</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="36">
         <v>10</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="40">
         <v>0.8</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="38">
         <f>G19*H19</f>
         <v>8</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="38"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36">
         <v>32</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="36">
         <v>32</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="37">
         <v>1.03</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="38">
         <f t="shared" ref="I20:I35" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21">
         <v>410</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="36">
         <v>500</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="36">
         <v>1</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="36">
         <v>1</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="37">
         <v>20</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="38">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
         <v>35</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39">
+      <c r="E22" s="36"/>
+      <c r="F22" s="36">
         <v>12</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="36">
         <v>2</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="37">
         <v>3</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="38">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="38"/>
+        <v>40</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36">
         <v>76</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="36">
         <v>100</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="37">
         <v>0.11</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="38">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36">
         <v>0</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="36">
         <v>50</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="37">
         <v>0.3</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="38">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36">
         <v>76</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="36">
         <v>100</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="37">
         <v>0.1</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="38">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J25" s="38"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36">
         <v>76</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="36">
         <v>100</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="37">
         <v>0.21</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="38">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
       <c r="O26" s="3">
         <v>7380</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36">
         <v>0</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="36">
         <v>20</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="37">
         <v>0.2</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="38">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
       <c r="O27" s="3">
         <v>7380</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36">
+        <v>1</v>
+      </c>
+      <c r="G28" s="36">
+        <v>1</v>
+      </c>
+      <c r="H28" s="37">
+        <v>70</v>
+      </c>
+      <c r="I28" s="38">
+        <f>G28*H28</f>
+        <v>70</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="38">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29">
         <v>100</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="36">
         <v>6585</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39">
+      <c r="F29" s="36"/>
+      <c r="G29" s="36">
         <v>2</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="37">
         <v>22.25</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="38">
         <f t="shared" si="1"/>
         <v>44.5</v>
       </c>
       <c r="J29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36">
         <v>10</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="36">
         <v>10</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="37">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="38">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="J30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36">
         <v>2</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="36">
         <v>2</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="37">
         <v>6</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="38">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36">
         <v>5</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="36">
         <v>5</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="37">
         <v>4</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="38">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J32" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="38">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33">
         <v>200</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="36">
         <v>600</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="36">
         <v>3</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="36">
         <v>3</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="37">
         <v>15</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="38">
         <f t="shared" ref="I33:I34" si="2">G33*H33</f>
         <v>45</v>
       </c>
       <c r="J33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36">
         <v>3</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="36">
         <v>3</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="37">
         <v>11</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="38">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="J34" s="23"/>
-      <c r="K34" s="40">
+      <c r="K34" s="37">
         <v>11</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="38">
         <f>K34*G34</f>
         <v>33</v>
       </c>
       <c r="M34" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="N34" s="38"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36">
         <v>2</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="36">
         <v>2</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="37">
         <v>13</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="38">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J35" s="23"/>
-      <c r="K35" s="40">
+      <c r="K35" s="37">
         <v>13</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="38">
         <f>K35*G35</f>
         <v>26</v>
       </c>
       <c r="M35" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="N35" s="38"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="2"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
       <c r="J36" s="23"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="41"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="29"/>
-      <c r="N36" s="38"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="2"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="23"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="41"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
       <c r="M37" s="29"/>
-      <c r="N37" s="38"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="46">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="42">
         <f>SUM(I16:I35)</f>
-        <v>495.46000000000004</v>
-      </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="43"/>
+        <v>565.46</v>
+      </c>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="1"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41">
-        <f>H39</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="19">
-        <f>SUM(I38:I39)</f>
-        <v>495.46000000000004</v>
-      </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="6"/>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="19">
+        <f>SUM(I38:I38)</f>
+        <v>565.46</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2463,9 +2398,10 @@
     <hyperlink ref="M35" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J22" r:id="rId9" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
+    <hyperlink ref="J28" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37930772-A57B-42A0-AB46-5584C29BE808}"/>
+  <xr:revisionPtr revIDLastSave="530" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249BF6A3-A0D0-4666-BEC3-E7322D15D99E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -172,21 +172,12 @@
     <t>T-Nut</t>
   </si>
   <si>
-    <t>Drop In T-Nut</t>
-  </si>
-  <si>
     <t>Washer</t>
   </si>
   <si>
-    <t>Stop Washer</t>
-  </si>
-  <si>
     <t>Screw</t>
   </si>
   <si>
-    <t>Button Head Screw</t>
-  </si>
-  <si>
     <t>Electronics</t>
   </si>
   <si>
@@ -244,7 +235,25 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Total Order Price Excl. VAT</t>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Precision Ball 10mm M4</t>
+  </si>
+  <si>
+    <t>Size: 10pc</t>
+  </si>
+  <si>
+    <t>M4x20</t>
+  </si>
+  <si>
+    <t>M5 Drop In T-Nut</t>
+  </si>
+  <si>
+    <t>5mm Stop Washer</t>
+  </si>
+  <si>
+    <t>M5x10 Button Head Screw</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;?_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,7 +938,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -941,8 +950,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -951,7 +958,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -974,23 +980,23 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1054,16 +1060,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2190751</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:colOff>342899</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>132754</xdr:rowOff>
+      <xdr:rowOff>142279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1091,7 +1097,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010026" y="323850"/>
+          <a:off x="4610101" y="333375"/>
           <a:ext cx="2962273" cy="1666279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1406,11 +1412,11 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
@@ -1427,151 +1433,151 @@
     <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1"/>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A11" s="20" t="s">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="28">
         <v>500</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="29">
         <f>F12*D12</f>
         <v>500</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="29">
         <v>1</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="35"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="32"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="33">
         <v>420</v>
       </c>
       <c r="E13" s="36">
@@ -1584,22 +1590,24 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
       <c r="I13" s="38"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
+      <c r="N13" s="33"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="33">
         <v>460</v>
       </c>
       <c r="E14" s="36">
@@ -1612,22 +1620,24 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="38"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
+      <c r="N14" s="33"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="33">
         <v>700</v>
       </c>
       <c r="E15" s="36">
@@ -1640,13 +1650,15 @@
       <c r="G15" s="36"/>
       <c r="H15" s="37"/>
       <c r="I15" s="38"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
+      <c r="N15" s="33"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1658,53 +1670,53 @@
       <c r="D16" s="8">
         <v>1500</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <f>E13+E14+E15</f>
         <v>6320</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <f>E16/D16</f>
         <v>4.2133333333333329</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="23">
         <v>5</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="13">
         <v>23.2</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="15">
         <f>G16*H16</f>
         <v>116</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="33">
         <v>500</v>
       </c>
       <c r="E17" s="39">
         <f>E12</f>
         <v>500</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="33">
         <f>E17/D17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="40">
         <v>1</v>
       </c>
       <c r="H17" s="37">
@@ -1718,50 +1730,52 @@
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
+      <c r="N17" s="33"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28">
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25">
         <v>12</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="25">
         <v>12</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="14">
         <v>2</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <f>G18*H18</f>
         <v>24</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="J18" s="24"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="33" t="s">
         <v>33</v>
       </c>
+      <c r="D19" s="33"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36">
         <v>6</v>
@@ -1769,29 +1783,31 @@
       <c r="G19" s="36">
         <v>10</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="41">
         <v>0.8</v>
       </c>
       <c r="I19" s="38">
         <f>G19*H19</f>
         <v>8</v>
       </c>
-      <c r="J19" s="41"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
+      <c r="N19" s="33"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="33" t="s">
         <v>34</v>
       </c>
+      <c r="D20" s="33"/>
       <c r="E20" s="36"/>
       <c r="F20" s="36">
         <v>32</v>
@@ -1803,25 +1819,27 @@
         <v>1.03</v>
       </c>
       <c r="I20" s="38">
-        <f t="shared" ref="I20:I35" si="1">G20*H20</f>
+        <f t="shared" ref="I20:I36" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
+      <c r="J20" s="33"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="33">
         <v>410</v>
       </c>
       <c r="E21" s="36">
@@ -1840,25 +1858,26 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="20" t="s">
         <v>37</v>
       </c>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
+      <c r="N21" s="33"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="33">
         <v>35</v>
       </c>
       <c r="E22" s="36"/>
@@ -1875,82 +1894,89 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
+      <c r="N22" s="33"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="33"/>
       <c r="E23" s="36"/>
       <c r="F23" s="36">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G23" s="36">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H23" s="37">
-        <v>0.11</v>
+        <v>3</v>
       </c>
       <c r="I23" s="38">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
+      <c r="N23" s="33"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
+      <c r="B24" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="33">
+        <v>20</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="36">
-        <v>50</v>
-      </c>
-      <c r="H24" s="37">
-        <v>0.3</v>
-      </c>
-      <c r="I24" s="38">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
+      <c r="N24" s="33"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
+      <c r="B25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="33"/>
       <c r="E25" s="36"/>
       <c r="F25" s="36">
         <v>76</v>
@@ -1959,290 +1985,305 @@
         <v>100</v>
       </c>
       <c r="H25" s="37">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I25" s="38">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J25" s="33"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
+      <c r="B26" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="33"/>
       <c r="E26" s="36"/>
       <c r="F26" s="36">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G26" s="36">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H26" s="37">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="I26" s="38">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J26" s="33"/>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
-      <c r="O26" s="3">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="N26" s="33"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
+      <c r="B27" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="33"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G27" s="36">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H27" s="37">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I27" s="38">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J27" s="33"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
-      <c r="O27" s="3">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27" s="33"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="33"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G28" s="36">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H28" s="37">
-        <v>70</v>
+        <v>0.21</v>
       </c>
       <c r="I28" s="38">
-        <f>G28*H28</f>
-        <v>70</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>53</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J28" s="33"/>
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" s="33"/>
+      <c r="O28" s="3">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29" s="36">
-        <v>6585</v>
-      </c>
-      <c r="F29" s="36"/>
+        <v>47</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36">
+        <v>1</v>
+      </c>
       <c r="G29" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="37">
-        <v>22.25</v>
+        <v>70</v>
       </c>
       <c r="I29" s="38">
-        <f t="shared" si="1"/>
-        <v>44.5</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>37</v>
+        <f>G29*H29</f>
+        <v>70</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
+      <c r="N29" s="33"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36">
-        <v>10</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="33">
+        <v>100</v>
+      </c>
+      <c r="E30" s="36">
+        <v>6585</v>
+      </c>
+      <c r="F30" s="36"/>
       <c r="G30" s="36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H30" s="37">
-        <v>4.0999999999999996</v>
+        <v>22.25</v>
       </c>
       <c r="I30" s="38">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J30" s="23" t="s">
+        <v>44.5</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
+      <c r="C31" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="33"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G31" s="36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H31" s="37">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I31" s="38">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J31" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="20" t="s">
         <v>37</v>
       </c>
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38"/>
+      <c r="N31" s="33"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
+      <c r="C32" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="33"/>
       <c r="E32" s="36"/>
       <c r="F32" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G32" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32" s="38">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>37</v>
       </c>
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
+      <c r="N32" s="33"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>200</v>
-      </c>
-      <c r="E33" s="36">
-        <v>600</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33" s="37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I33" s="38">
-        <f t="shared" ref="I33:I34" si="2">G33*H33</f>
-        <v>45</v>
-      </c>
-      <c r="J33" s="23" t="s">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
+      <c r="N33" s="33"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="36"/>
+        <v>51</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="33">
+        <v>200</v>
+      </c>
+      <c r="E34" s="36">
+        <v>600</v>
+      </c>
       <c r="F34" s="36">
         <v>3</v>
       </c>
@@ -2250,135 +2291,156 @@
         <v>3</v>
       </c>
       <c r="H34" s="37">
+        <v>15</v>
+      </c>
+      <c r="I34" s="38">
+        <f t="shared" ref="I34:I35" si="2">G34*H34</f>
+        <v>45</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36">
+        <v>3</v>
+      </c>
+      <c r="G35" s="36">
+        <v>3</v>
+      </c>
+      <c r="H35" s="37">
         <v>11</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I35" s="38">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="37">
+      <c r="J35" s="20"/>
+      <c r="K35" s="37">
         <v>11</v>
       </c>
-      <c r="L34" s="38">
-        <f>K34*G34</f>
+      <c r="L35" s="38">
+        <f>K35*G35</f>
         <v>33</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M35" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36">
+      <c r="N35" s="33"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36">
         <v>2</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G36" s="36">
         <v>2</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H36" s="37">
         <v>13</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I36" s="38">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="37">
+      <c r="J36" s="20"/>
+      <c r="K36" s="37">
         <v>13</v>
       </c>
-      <c r="L35" s="38">
-        <f>K35*G35</f>
+      <c r="L36" s="38">
+        <f>K36*G36</f>
         <v>26</v>
       </c>
-      <c r="M35" s="29" t="s">
+      <c r="M36" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="2"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="29"/>
+      <c r="N36" s="33"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="37"/>
       <c r="I37" s="38"/>
-      <c r="J37" s="23"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="37"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="29"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="33"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="42">
-        <f>SUM(I16:I35)</f>
-        <v>565.46</v>
-      </c>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="19">
-        <f>SUM(I38:I38)</f>
-        <v>565.46</v>
-      </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
+      <c r="I39" s="43">
+        <f>SUM(I16:I36)</f>
+        <v>564.46</v>
+      </c>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
     </row>
@@ -2389,19 +2451,20 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J29" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J30" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J31" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J32" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J33" r:id="rId5" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M34" r:id="rId6" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M35" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J30" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J31" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J32" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J33" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J34" r:id="rId5" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M35" r:id="rId6" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M36" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J22" r:id="rId9" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="J28" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="J29" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="J23" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="530" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{249BF6A3-A0D0-4666-BEC3-E7322D15D99E}"/>
+  <xr:revisionPtr revIDLastSave="538" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC9EF41-7C4E-4AB1-8D29-09C8296957CE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,12 +154,6 @@
     <t>Rod</t>
   </si>
   <si>
-    <t>5x35mm Bearing Shaft</t>
-  </si>
-  <si>
-    <t>2x 35mm 6PC</t>
-  </si>
-  <si>
     <t>Fasteners</t>
   </si>
   <si>
@@ -254,6 +248,12 @@
   </si>
   <si>
     <t>M5x10 Button Head Screw</t>
+  </si>
+  <si>
+    <t>3x 40mm 5Pcs</t>
+  </si>
+  <si>
+    <t>5x40mm Bearing Shaft</t>
   </si>
 </sst>
 </file>
@@ -981,12 +981,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -997,6 +991,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1434,40 +1434,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1580,20 +1580,20 @@
       <c r="D13" s="33">
         <v>420</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="34">
         <f>F13*D13</f>
         <v>1680</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="34">
         <v>4</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="33"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="33"/>
       <c r="O13" s="3"/>
     </row>
@@ -1610,20 +1610,20 @@
       <c r="D14" s="33">
         <v>460</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="34">
         <f t="shared" ref="E14:E15" si="0">F14*D14</f>
         <v>1840</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="34">
         <v>4</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="33"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="33"/>
       <c r="O14" s="3"/>
     </row>
@@ -1640,20 +1640,20 @@
       <c r="D15" s="33">
         <v>700</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="34">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="34">
         <v>4</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="33"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="33"/>
       <c r="O15" s="3"/>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="D17" s="33">
         <v>500</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="37">
         <f>E12</f>
         <v>500</v>
       </c>
@@ -1716,20 +1716,20 @@
         <f>E17/D17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="38">
         <v>1</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="35">
         <v>6</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="36">
         <f>G17*H17</f>
         <v>6</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="33"/>
       <c r="O17" s="3"/>
     </row>
@@ -1776,24 +1776,24 @@
         <v>33</v>
       </c>
       <c r="D19" s="33"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34">
         <v>6</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>10</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="39">
         <v>0.8</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="36">
         <f>G19*H19</f>
         <v>8</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="33"/>
       <c r="O19" s="3"/>
     </row>
@@ -1808,24 +1808,24 @@
         <v>34</v>
       </c>
       <c r="D20" s="33"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34">
         <v>32</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="34">
         <v>32</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="35">
         <v>1.03</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="36">
         <f t="shared" ref="I20:I36" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
       <c r="J20" s="33"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="33"/>
       <c r="O20" s="3"/>
     </row>
@@ -1842,28 +1842,28 @@
       <c r="D21" s="33">
         <v>410</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="34">
         <v>500</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="34">
         <v>1</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="34">
         <v>1</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <v>20</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="33"/>
       <c r="O21" s="3"/>
     </row>
@@ -1875,31 +1875,31 @@
         <v>38</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D22" s="33">
         <v>35</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34">
+        <v>18</v>
+      </c>
+      <c r="G22" s="34">
+        <v>4</v>
+      </c>
+      <c r="H22" s="35">
+        <v>3</v>
+      </c>
+      <c r="I22" s="36">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G22" s="36">
-        <v>2</v>
-      </c>
-      <c r="H22" s="37">
-        <v>3</v>
-      </c>
-      <c r="I22" s="38">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="J22" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+        <v>71</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="33"/>
       <c r="O22" s="3"/>
     </row>
@@ -1908,189 +1908,189 @@
         <v>20</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="33"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34">
         <v>3</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="34">
         <v>1</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <v>3</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="36">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+        <v>66</v>
+      </c>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="33"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="33">
         <v>20</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34">
         <v>3</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="34">
         <v>3</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="33"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>43</v>
-      </c>
       <c r="D25" s="33"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34">
         <v>76</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="34">
         <v>100</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="35">
         <v>0.11</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="36">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J25" s="33"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="33"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="33"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34">
         <v>0</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="34">
         <v>50</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="35">
         <v>0.3</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="36">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J26" s="33"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="33"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="33"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34">
         <v>76</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="34">
         <v>100</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="35">
         <v>0.1</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="36">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J27" s="33"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="33"/>
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34">
         <v>76</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="34">
         <v>100</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="35">
         <v>0.21</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="36">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J28" s="33"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="33"/>
       <c r="O28" s="3">
         <v>7380</v>
@@ -2098,244 +2098,244 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>49</v>
-      </c>
       <c r="D29" s="33"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34">
         <v>1</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="34">
         <v>1</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="35">
         <v>70</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="36">
         <f>G29*H29</f>
         <v>70</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="33"/>
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>51</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="33">
         <v>100</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="34">
         <v>6585</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36">
+      <c r="F30" s="34"/>
+      <c r="G30" s="34">
         <v>2</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="35">
         <v>22.25</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="36">
         <f t="shared" si="1"/>
         <v>44.5</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="33"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="33"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36">
+      <c r="E31" s="34"/>
+      <c r="F31" s="34">
         <v>10</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="34">
         <v>10</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="35">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="36">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="33"/>
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>56</v>
-      </c>
       <c r="D32" s="33"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34">
         <v>2</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="34">
         <v>2</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="35">
         <v>6</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="36">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="33"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D33" s="33"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36">
+      <c r="E33" s="34"/>
+      <c r="F33" s="34">
         <v>5</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="34">
         <v>5</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="35">
         <v>4</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
       <c r="N33" s="33"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D34" s="33">
         <v>200</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="34">
         <v>600</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="34">
         <v>3</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="34">
         <v>3</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="35">
         <v>15</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="36">
         <f t="shared" ref="I34:I35" si="2">G34*H34</f>
         <v>45</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="33"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="33"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36">
+      <c r="E35" s="34"/>
+      <c r="F35" s="34">
         <v>3</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="34">
         <v>3</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="35">
         <v>11</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="36">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="J35" s="20"/>
-      <c r="K35" s="37">
+      <c r="K35" s="35">
         <v>11</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="36">
         <f>K35*G35</f>
         <v>33</v>
       </c>
@@ -2347,34 +2347,34 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="33"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36">
+      <c r="E36" s="34"/>
+      <c r="F36" s="34">
         <v>2</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="34">
         <v>2</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="35">
         <v>13</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="36">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J36" s="20"/>
-      <c r="K36" s="37">
+      <c r="K36" s="35">
         <v>13</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <f>K36*G36</f>
         <v>26</v>
       </c>
@@ -2389,14 +2389,14 @@
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="38"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="26"/>
       <c r="N37" s="33"/>
       <c r="O37" s="3"/>
@@ -2406,41 +2406,41 @@
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="26"/>
       <c r="N38" s="33"/>
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="43">
+      <c r="I39" s="41">
         <f>SUM(I16:I36)</f>
-        <v>564.46</v>
-      </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
+        <v>570.46</v>
+      </c>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
     </row>
@@ -2459,7 +2459,7 @@
     <hyperlink ref="M35" r:id="rId6" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
     <hyperlink ref="M36" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
-    <hyperlink ref="J22" r:id="rId9" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
+    <hyperlink ref="J22" r:id="rId9" display="2x 35mm 6PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="J29" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J23" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
   </hyperlinks>

--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="538" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC9EF41-7C4E-4AB1-8D29-09C8296957CE}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{398C1B64-475B-406D-B9D6-603007B11B4B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>5x40mm Bearing Shaft</t>
+  </si>
+  <si>
+    <t>2x 4M-9MM-2GT</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1430,7 @@
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -2144,7 +2147,7 @@
         <v>100</v>
       </c>
       <c r="E30" s="34">
-        <v>6585</v>
+        <v>7000</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34">
@@ -2158,7 +2161,7 @@
         <v>44.5</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
@@ -2451,7 +2454,7 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J30" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J30" r:id="rId1" display="Link" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
     <hyperlink ref="J31" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
     <hyperlink ref="J32" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
     <hyperlink ref="J33" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>

--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{398C1B64-475B-406D-B9D6-603007B11B4B}"/>
+  <xr:revisionPtr revIDLastSave="627" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD35F9C0-4595-40AB-8AC1-1FE0940CDDAD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="35115" yWindow="3615" windowWidth="11640" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$42</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Budget Batch Price $</t>
   </si>
   <si>
-    <t>Budget Parts Link</t>
-  </si>
-  <si>
     <t>HQ Unit Price $</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>20x20x18 Carbon Tube</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Rod</t>
   </si>
   <si>
@@ -190,45 +184,24 @@
     <t>Belt</t>
   </si>
   <si>
-    <t>2GT 9mm Drive Belt</t>
-  </si>
-  <si>
     <t>Idler</t>
   </si>
   <si>
-    <t>2GT 11mm Smooth Idlers</t>
-  </si>
-  <si>
-    <t>2GT 11mm Toothed Idlers</t>
-  </si>
-  <si>
     <t>Pulley</t>
   </si>
   <si>
-    <t>2GT 11mm Pulleys</t>
-  </si>
-  <si>
-    <t>Pulley Gear</t>
-  </si>
-  <si>
     <t>2GT 20T-80T 4:1 Belt Gear</t>
   </si>
   <si>
     <t>Steppermotor</t>
   </si>
   <si>
-    <t>NEMA 17 1.7A 0.9 40mm</t>
-  </si>
-  <si>
     <t>Kit</t>
   </si>
   <si>
     <t>Valkyrie 3d Printer Kit</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Ball</t>
   </si>
   <si>
@@ -250,13 +223,91 @@
     <t>M5x10 Button Head Screw</t>
   </si>
   <si>
-    <t>3x 40mm 5Pcs</t>
-  </si>
-  <si>
     <t>5x40mm Bearing Shaft</t>
   </si>
   <si>
-    <t>2x 4M-9MM-2GT</t>
+    <t>1x 8M Heat resistant</t>
+  </si>
+  <si>
+    <t>W 11mm without t</t>
+  </si>
+  <si>
+    <t>W 11mm with t</t>
+  </si>
+  <si>
+    <t>Idlers Smooth 11mm</t>
+  </si>
+  <si>
+    <t>Idlers Toothed 11mm</t>
+  </si>
+  <si>
+    <t>Pulley 11mm 2GT</t>
+  </si>
+  <si>
+    <t>For 9mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing Belt 2GT 9mm </t>
+  </si>
+  <si>
+    <t>20X20X18MM 500MM</t>
+  </si>
+  <si>
+    <t>4x 40mm 5Pcs</t>
+  </si>
+  <si>
+    <t>Order Parts Link</t>
+  </si>
+  <si>
+    <t>Toothed Idler 9mm</t>
+  </si>
+  <si>
+    <t>Smooth Idler 9mm</t>
+  </si>
+  <si>
+    <t>40mm NEMA 17 1.7A 0.9</t>
+  </si>
+  <si>
+    <t>48mm NEMA 17 1.7A 0.9</t>
+  </si>
+  <si>
+    <t>20 Tooth 9mm</t>
+  </si>
+  <si>
+    <t>Price exl VAT</t>
+  </si>
+  <si>
+    <t>High Torque Motor</t>
+  </si>
+  <si>
+    <t>Compact Motor</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>200mm-(5mm)20T-80T</t>
+  </si>
+  <si>
+    <t>Watercooling</t>
+  </si>
+  <si>
+    <t>Radiator</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Reservoir</t>
+  </si>
+  <si>
+    <t>240 Radiator</t>
+  </si>
+  <si>
+    <t>120 Fan</t>
   </si>
 </sst>
 </file>
@@ -941,7 +992,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -970,7 +1021,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -992,7 +1042,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1000,6 +1049,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1063,16 +1118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2190751</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>142279</xdr:rowOff>
+      <xdr:rowOff>94653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1100,8 +1155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610101" y="333375"/>
-          <a:ext cx="2962273" cy="1666279"/>
+          <a:off x="4686301" y="285750"/>
+          <a:ext cx="2962273" cy="1666278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,7 +1468,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -1423,54 +1478,55 @@
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1521,167 +1577,167 @@
       <c r="I11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="M11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="N11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="O11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="19" t="s">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="B12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>500</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <f>F12*D12</f>
         <v>500</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>1</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="32"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <v>420</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <f>F13*D13</f>
         <v>1680</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <v>4</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="32"/>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="33">
+        <v>19</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="32">
         <v>460</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <f t="shared" ref="E14:E15" si="0">F14*D14</f>
         <v>1840</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <v>4</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="32"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="33">
+        <v>19</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="32">
         <v>700</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <v>4</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="32"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="8">
         <v>1500</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <f>E13+E14+E15</f>
         <v>6320</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <f>E16/D16</f>
         <v>4.2133333333333329</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>5</v>
       </c>
       <c r="H16" s="13">
@@ -1691,7 +1747,7 @@
         <f>G16*H16</f>
         <v>116</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -1700,58 +1756,58 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>500</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <f>E12</f>
         <v>500</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="32">
         <f>E17/D17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>1</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>6</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <f>G17*H17</f>
         <v>6</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="33"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25">
+        <v>19</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
         <v>12</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <v>12</v>
       </c>
       <c r="H18" s="14">
@@ -1761,691 +1817,799 @@
         <f>G18*H18</f>
         <v>24</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="24"/>
+      <c r="N18" s="23"/>
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34">
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33">
         <v>6</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <v>10</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>0.8</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <f>G19*H19</f>
         <v>8</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="33"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="32"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33">
         <v>32</v>
       </c>
-      <c r="C20" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34">
+      <c r="G20" s="33">
         <v>32</v>
       </c>
-      <c r="G20" s="34">
-        <v>32</v>
-      </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <v>1.03</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <f t="shared" ref="I20:I36" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="33"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="32"/>
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="32">
+        <v>410</v>
+      </c>
+      <c r="E21" s="33">
+        <v>500</v>
+      </c>
+      <c r="F21" s="33">
+        <v>1</v>
+      </c>
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
+      <c r="H21" s="34">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="33">
-        <v>410</v>
-      </c>
-      <c r="E21" s="34">
-        <v>500</v>
-      </c>
-      <c r="F21" s="34">
-        <v>1</v>
-      </c>
-      <c r="G21" s="34">
-        <v>1</v>
-      </c>
-      <c r="H21" s="35">
-        <v>20</v>
-      </c>
-      <c r="I21" s="36">
+      <c r="I21" s="35">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="33"/>
+      <c r="J21" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="32"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="33">
+        <v>19</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="32">
         <v>35</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33">
         <v>18</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="33">
         <v>4</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>3</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="35">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J22" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="33"/>
+      <c r="J22" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="32"/>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34">
+        <v>19</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33">
         <v>3</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <v>1</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>3</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="33"/>
+      <c r="J23" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="32"/>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="33">
+        <v>37</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="32">
         <v>20</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33">
         <v>3</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <v>3</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="32"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34">
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33">
         <v>76</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <v>100</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="34">
         <v>0.11</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="33"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="32"/>
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34">
+        <v>37</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33">
         <v>0</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="33">
         <v>50</v>
       </c>
-      <c r="H26" s="35">
+      <c r="H26" s="34">
         <v>0.3</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="35">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="33"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="32"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34">
+        <v>37</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33">
         <v>76</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="33">
         <v>100</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="34">
         <v>0.1</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="33"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="32"/>
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34">
+        <v>37</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33">
         <v>76</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="33">
         <v>100</v>
       </c>
-      <c r="H28" s="35">
+      <c r="H28" s="34">
         <v>0.21</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="33"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="32"/>
       <c r="O28" s="3">
         <v>7380</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34">
+      <c r="D29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33">
         <v>1</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <v>1</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="34">
         <v>70</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="35">
         <f>G29*H29</f>
         <v>70</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="33"/>
+      <c r="J29" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="33">
+        <v>47</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="32">
         <v>100</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="33">
         <v>7000</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34">
-        <v>2</v>
-      </c>
-      <c r="H30" s="35">
-        <v>22.25</v>
-      </c>
-      <c r="I30" s="36">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33">
+        <v>1</v>
+      </c>
+      <c r="H30" s="34">
+        <v>39</v>
+      </c>
+      <c r="I30" s="35">
         <f t="shared" si="1"/>
-        <v>44.5</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="33"/>
+        <v>39</v>
+      </c>
+      <c r="J30" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="32"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34">
+      <c r="C31" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33">
         <v>10</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="33">
         <v>10</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="34">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="J31" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="33"/>
+      <c r="J31" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="35">
+        <v>5.5</v>
+      </c>
+      <c r="L31" s="35">
+        <f>K31*G31</f>
+        <v>55</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="32"/>
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34">
-        <v>2</v>
-      </c>
-      <c r="G32" s="34">
-        <v>2</v>
-      </c>
-      <c r="H32" s="35">
+      <c r="C32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33">
+        <v>5</v>
+      </c>
+      <c r="G32" s="33">
+        <v>5</v>
+      </c>
+      <c r="H32" s="34">
         <v>6</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="35">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="35">
+        <v>7</v>
+      </c>
+      <c r="L32" s="35">
+        <f>K32*G32</f>
+        <v>35</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" s="32"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34">
+        <v>47</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33">
         <v>5</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="33">
         <v>5</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="34">
         <v>4</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="35">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J33" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="33"/>
+      <c r="J33" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="35">
+        <v>6</v>
+      </c>
+      <c r="L33" s="35">
+        <f>K33*G33</f>
+        <v>30</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" s="32"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="33">
+        <v>47</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="32">
         <v>200</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="33">
         <v>600</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="33">
         <v>3</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="33">
         <v>3</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="34">
         <v>15</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <f t="shared" ref="I34:I35" si="2">G34*H34</f>
         <v>45</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="33"/>
+      <c r="J34" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="32"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34">
+        <v>47</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33">
         <v>3</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="33">
         <v>3</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="34">
         <v>11</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="35">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="35">
+      <c r="J35" s="45"/>
+      <c r="K35" s="34">
         <v>11</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="35">
         <f>K35*G35</f>
         <v>33</v>
       </c>
-      <c r="M35" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="N35" s="33"/>
+      <c r="M35" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N35" s="32"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34">
+        <v>47</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33">
         <v>2</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="33">
         <v>2</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="34">
         <v>13</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="35">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="J36" s="20"/>
-      <c r="K36" s="35">
+      <c r="J36" s="45"/>
+      <c r="K36" s="34">
         <v>13</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="35">
         <f>K36*G36</f>
         <v>26</v>
       </c>
-      <c r="M36" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="N36" s="33"/>
+      <c r="M36" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N36" s="32"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="33"/>
+      <c r="A37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33">
+        <v>1</v>
+      </c>
+      <c r="G37" s="33">
+        <v>1</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="32"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="33"/>
+      <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33">
+        <v>2</v>
+      </c>
+      <c r="G38" s="33">
+        <v>2</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="32"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="41">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33">
+        <v>1</v>
+      </c>
+      <c r="G39" s="33">
+        <v>1</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33">
+        <v>1</v>
+      </c>
+      <c r="G40" s="33">
+        <v>1</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="39">
         <f>SUM(I16:I36)</f>
-        <v>570.46</v>
-      </c>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="6"/>
+        <v>582.96</v>
+      </c>
+      <c r="J42" s="46"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2454,20 +2618,23 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J30" r:id="rId1" display="Link" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J31" r:id="rId2" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J32" r:id="rId3" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J33" r:id="rId4" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J34" r:id="rId5" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M35" r:id="rId6" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="J30" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J31" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J32" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J33" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J34" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M35" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
     <hyperlink ref="M36" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
-    <hyperlink ref="J21" r:id="rId8" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
+    <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J22" r:id="rId9" display="2x 35mm 6PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="J29" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J23" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
+    <hyperlink ref="M31" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M32" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M33" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId12"/>
-  <drawing r:id="rId13"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="627" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD35F9C0-4595-40AB-8AC1-1FE0940CDDAD}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F2DDAC-2731-403D-AEB9-DF5C64217CBB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="35115" yWindow="3615" windowWidth="11640" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Base Frame BOM 02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$43</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Order Quantity</t>
   </si>
   <si>
-    <t>Budget Unit Price $</t>
-  </si>
-  <si>
-    <t>Budget Batch Price $</t>
-  </si>
-  <si>
     <t>HQ Unit Price $</t>
   </si>
   <si>
@@ -308,6 +302,24 @@
   </si>
   <si>
     <t>120 Fan</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Unit Price $</t>
+  </si>
+  <si>
+    <t>Batch Price $</t>
+  </si>
+  <si>
+    <t>1225 cm^2</t>
+  </si>
+  <si>
+    <t>Cast Aluminum 8mm</t>
+  </si>
+  <si>
+    <t>350^2</t>
   </si>
 </sst>
 </file>
@@ -1043,18 +1055,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1468,7 +1480,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -1493,40 +1505,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1549,7 +1561,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:15" s="7" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
@@ -1572,39 +1584,39 @@
         <v>11</v>
       </c>
       <c r="H11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="L11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="M11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="N11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="O11" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>21</v>
       </c>
       <c r="D12" s="27">
         <v>500</v>
@@ -1628,13 +1640,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="32">
         <v>420</v>
@@ -1658,13 +1670,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="32">
         <v>460</v>
@@ -1688,13 +1700,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="32">
         <v>700</v>
@@ -1718,13 +1730,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8">
         <v>1500</v>
@@ -1747,7 +1759,7 @@
         <f>G16*H16</f>
         <v>116</v>
       </c>
-      <c r="J16" s="42"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -1756,13 +1768,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="32">
         <v>500</v>
@@ -1785,7 +1797,7 @@
         <f>G17*H17</f>
         <v>6</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -1794,13 +1806,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="24"/>
@@ -1826,13 +1838,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
@@ -1849,7 +1861,7 @@
         <f>G19*H19</f>
         <v>8</v>
       </c>
-      <c r="J19" s="44"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
@@ -1858,13 +1870,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="33"/>
@@ -1878,7 +1890,7 @@
         <v>1.03</v>
       </c>
       <c r="I20" s="35">
-        <f t="shared" ref="I20:I36" si="1">G20*H20</f>
+        <f t="shared" ref="I20:I37" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
       <c r="J20" s="3"/>
@@ -1890,13 +1902,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="32">
         <v>410</v>
@@ -1917,8 +1929,8 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J21" s="45" t="s">
-        <v>71</v>
+      <c r="J21" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
@@ -1928,13 +1940,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="32">
         <v>35</v>
@@ -1953,8 +1965,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J22" s="45" t="s">
-        <v>72</v>
+      <c r="J22" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
@@ -1964,13 +1976,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="33"/>
@@ -1987,8 +1999,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J23" s="45" t="s">
-        <v>57</v>
+      <c r="J23" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
@@ -1998,27 +2010,34 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="32">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33">
-        <v>3</v>
+        <v>1225</v>
       </c>
       <c r="G24" s="33">
-        <v>3</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="45"/>
+        <v>1225</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="I24" s="35">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>92</v>
+      </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
@@ -2027,30 +2046,27 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="32"/>
+        <v>56</v>
+      </c>
+      <c r="D25" s="32">
+        <v>20</v>
+      </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G25" s="33">
-        <v>100</v>
-      </c>
-      <c r="H25" s="34">
-        <v>0.11</v>
-      </c>
-      <c r="I25" s="35">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J25" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="43"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
@@ -2059,28 +2075,28 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>37</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>59</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G26" s="33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H26" s="34">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="I26" s="35">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="35"/>
@@ -2091,28 +2107,28 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G27" s="33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H27" s="34">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I27" s="35">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="35"/>
@@ -2123,13 +2139,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
@@ -2140,84 +2156,80 @@
         <v>100</v>
       </c>
       <c r="H28" s="34">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="I28" s="35">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35"/>
       <c r="N28" s="32"/>
-      <c r="O28" s="3">
-        <v>7380</v>
-      </c>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G29" s="33">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H29" s="34">
-        <v>70</v>
+        <v>0.21</v>
       </c>
       <c r="I29" s="35">
-        <f>G29*H29</f>
-        <v>70</v>
-      </c>
-      <c r="J29" s="45" t="s">
-        <v>46</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="3"/>
+      <c r="O29" s="3">
+        <v>7380</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="32">
-        <v>100</v>
-      </c>
-      <c r="E30" s="33">
-        <v>7000</v>
-      </c>
-      <c r="F30" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33">
+        <v>1</v>
+      </c>
       <c r="G30" s="33">
         <v>1</v>
       </c>
       <c r="H30" s="34">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I30" s="35">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="J30" s="45" t="s">
-        <v>63</v>
+        <f>G30*H30</f>
+        <v>70</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
@@ -2227,95 +2239,90 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33">
-        <v>10</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D31" s="32">
+        <v>100</v>
+      </c>
+      <c r="E31" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F31" s="33"/>
       <c r="G31" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H31" s="34">
-        <v>4.0999999999999996</v>
+        <v>39</v>
       </c>
       <c r="I31" s="35">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="J31" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="L31" s="35">
-        <f>K31*G31</f>
-        <v>55</v>
-      </c>
-      <c r="M31" s="25" t="s">
-        <v>75</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
       <c r="N31" s="32"/>
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>49</v>
-      </c>
       <c r="C32" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G32" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H32" s="34">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I32" s="35">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J32" s="45" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="K32" s="35">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L32" s="35">
         <f>K32*G32</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N32" s="32"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
@@ -2326,78 +2333,85 @@
         <v>5</v>
       </c>
       <c r="H33" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I33" s="35">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J33" s="45" t="s">
-        <v>69</v>
+        <v>30</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="K33" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L33" s="35">
         <f>K33*G33</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N33" s="32"/>
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="32">
-        <v>200</v>
-      </c>
-      <c r="E34" s="33">
-        <v>600</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" s="34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I34" s="35">
-        <f t="shared" ref="I34:I35" si="2">G34*H34</f>
-        <v>45</v>
-      </c>
-      <c r="J34" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="35">
+        <v>6</v>
+      </c>
+      <c r="L34" s="35">
+        <f>K34*G34</f>
+        <v>30</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="N34" s="32"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="D35" s="32">
+        <v>200</v>
+      </c>
+      <c r="E35" s="33">
+        <v>600</v>
+      </c>
       <c r="F35" s="33">
         <v>3</v>
       </c>
@@ -2405,113 +2419,120 @@
         <v>3</v>
       </c>
       <c r="H35" s="34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I35" s="35">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J35" s="45"/>
-      <c r="K35" s="34">
-        <v>11</v>
-      </c>
-      <c r="L35" s="35">
-        <f>K35*G35</f>
-        <v>33</v>
-      </c>
-      <c r="M35" s="25" t="s">
+        <f t="shared" ref="I35:I36" si="2">G35*H35</f>
+        <v>45</v>
+      </c>
+      <c r="J35" s="43" t="s">
         <v>81</v>
       </c>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J36" s="45"/>
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="J36" s="43"/>
       <c r="K36" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L36" s="35">
         <f>K36*G36</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M36" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N36" s="32"/>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="33">
-        <v>1</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="34">
+        <v>13</v>
+      </c>
+      <c r="I37" s="35">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J37" s="43"/>
+      <c r="K37" s="34">
+        <v>13</v>
+      </c>
+      <c r="L37" s="35">
+        <f>K37*G37</f>
+        <v>26</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="N37" s="32"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>87</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="45"/>
+      <c r="J38" s="43"/>
       <c r="K38" s="34"/>
       <c r="L38" s="35"/>
       <c r="M38" s="25"/>
@@ -2520,23 +2541,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="45" t="s">
+        <v>88</v>
+      </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="45"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="34"/>
       <c r="L39" s="35"/>
       <c r="M39" s="25"/>
@@ -2545,10 +2568,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>85</v>
       </c>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -2561,7 +2584,7 @@
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="45"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="34"/>
       <c r="L40" s="35"/>
       <c r="M40" s="25"/>
@@ -2569,47 +2592,72 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
+      <c r="F41" s="33">
+        <v>1</v>
+      </c>
+      <c r="G41" s="33">
+        <v>1</v>
+      </c>
       <c r="H41" s="34"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="45"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="34"/>
       <c r="L41" s="35"/>
       <c r="M41" s="25"/>
       <c r="N41" s="32"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="39">
-        <f>SUM(I16:I36)</f>
-        <v>582.96</v>
-      </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="39">
+        <f>SUM(I16:I37)</f>
+        <v>680.96</v>
+      </c>
+      <c r="J43" s="44"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2618,23 +2666,24 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J30" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J31" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J32" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J33" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J34" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M35" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M36" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J31" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J32" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J33" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J34" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J35" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M36" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M37" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J22" r:id="rId9" display="2x 35mm 6PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
-    <hyperlink ref="J29" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
+    <hyperlink ref="J30" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J23" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M31" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M32" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M33" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="M32" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M33" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M34" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="J24" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId15"/>
-  <drawing r:id="rId16"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie Base Frame BOM 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="646" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F2DDAC-2731-403D-AEB9-DF5C64217CBB}"/>
+  <xr:revisionPtr revIDLastSave="656" documentId="13_ncr:40009_{88348E9D-FB72-456D-96C4-609C2DEF09D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350AD10E-AEFA-407D-A10A-93B0803F7CD6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Base Frame BOM 02'!$A$11:$O$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Valkyrie Base Frame BOM 02'!$A$1:$O$44</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>PROJECT VALKYRIE</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>350^2</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>24V10A 240W</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1486,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O1"/>
@@ -1890,7 +1896,7 @@
         <v>1.03</v>
       </c>
       <c r="I20" s="35">
-        <f t="shared" ref="I20:I37" si="1">G20*H20</f>
+        <f t="shared" ref="I20:I38" si="1">G20*H20</f>
         <v>32.96</v>
       </c>
       <c r="J20" s="3"/>
@@ -2239,33 +2245,29 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="32">
-        <v>100</v>
-      </c>
-      <c r="E31" s="33">
-        <v>7000</v>
-      </c>
-      <c r="F31" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
       <c r="G31" s="33">
         <v>1</v>
       </c>
       <c r="H31" s="34">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I31" s="35">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f>G31*H31</f>
+        <v>23</v>
       </c>
       <c r="J31" s="43" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
@@ -2278,39 +2280,34 @@
         <v>45</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33">
-        <v>10</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D32" s="32">
+        <v>100</v>
+      </c>
+      <c r="E32" s="33">
+        <v>7000</v>
+      </c>
+      <c r="F32" s="33"/>
       <c r="G32" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H32" s="34">
-        <v>4.0999999999999996</v>
+        <v>39</v>
       </c>
       <c r="I32" s="35">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J32" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="L32" s="35">
-        <f>K32*G32</f>
-        <v>55</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>73</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="32"/>
       <c r="O32" s="3"/>
     </row>
@@ -2322,35 +2319,35 @@
         <v>47</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G33" s="33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H33" s="34">
-        <v>6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I33" s="35">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J33" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="35">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L33" s="35">
         <f>K33*G33</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M33" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N33" s="32"/>
       <c r="O33" s="3"/>
@@ -2360,10 +2357,10 @@
         <v>45</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="33"/>
@@ -2374,24 +2371,24 @@
         <v>5</v>
       </c>
       <c r="H34" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34" s="35">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J34" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K34" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L34" s="35">
         <f>K34*G34</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N34" s="32"/>
       <c r="O34" s="3"/>
@@ -2401,36 +2398,39 @@
         <v>45</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="32">
-        <v>200</v>
-      </c>
-      <c r="E35" s="33">
-        <v>600</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" s="34">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I35" s="35">
-        <f t="shared" ref="I35:I36" si="2">G35*H35</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J35" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
+        <v>67</v>
+      </c>
+      <c r="K35" s="35">
+        <v>6</v>
+      </c>
+      <c r="L35" s="35">
+        <f>K35*G35</f>
+        <v>30</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
     </row>
@@ -2439,13 +2439,17 @@
         <v>45</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
+        <v>49</v>
+      </c>
+      <c r="D36" s="32">
+        <v>200</v>
+      </c>
+      <c r="E36" s="33">
+        <v>600</v>
+      </c>
       <c r="F36" s="33">
         <v>3</v>
       </c>
@@ -2453,23 +2457,18 @@
         <v>3</v>
       </c>
       <c r="H36" s="34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I36" s="35">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="34">
-        <v>11</v>
-      </c>
-      <c r="L36" s="35">
-        <f>K36*G36</f>
-        <v>33</v>
-      </c>
-      <c r="M36" s="25" t="s">
-        <v>79</v>
-      </c>
+        <f t="shared" ref="I36:I37" si="2">G36*H36</f>
+        <v>45</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="32"/>
       <c r="O36" s="3"/>
     </row>
@@ -2481,61 +2480,73 @@
         <v>50</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I37" s="35">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="J37" s="43"/>
       <c r="K37" s="34">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L37" s="35">
         <f>K37*G37</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N37" s="32"/>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>87</v>
+        <v>45</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="33">
-        <v>1</v>
-      </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="H38" s="34">
+        <v>13</v>
+      </c>
+      <c r="I38" s="35">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
       <c r="J38" s="43"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="25"/>
+      <c r="K38" s="34">
+        <v>13</v>
+      </c>
+      <c r="L38" s="35">
+        <f>K38*G38</f>
+        <v>26</v>
+      </c>
+      <c r="M38" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="N38" s="32"/>
       <c r="O38" s="3"/>
     </row>
@@ -2544,18 +2555,18 @@
         <v>82</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
@@ -2571,16 +2582,18 @@
         <v>82</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="32"/>
+        <v>84</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>88</v>
+      </c>
       <c r="D40" s="32"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="35"/>
@@ -2596,7 +2609,7 @@
         <v>82</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -2617,13 +2630,21 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
+      <c r="F42" s="33">
+        <v>1</v>
+      </c>
+      <c r="G42" s="33">
+        <v>1</v>
+      </c>
       <c r="H42" s="34"/>
       <c r="I42" s="35"/>
       <c r="J42" s="43"/>
@@ -2633,31 +2654,48 @@
       <c r="N42" s="32"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="39">
-        <f>SUM(I16:I37)</f>
-        <v>680.96</v>
-      </c>
-      <c r="J43" s="44"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="39">
+        <f>SUM(I16:I38)</f>
+        <v>703.96</v>
+      </c>
+      <c r="J44" s="44"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:O11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2666,24 +2704,25 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J31" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
-    <hyperlink ref="J32" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
-    <hyperlink ref="J33" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
-    <hyperlink ref="J34" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
-    <hyperlink ref="J35" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
-    <hyperlink ref="M36" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
-    <hyperlink ref="M37" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
+    <hyperlink ref="J32" r:id="rId1" xr:uid="{AA6174A7-7F32-4CA5-815C-1D533DDE9F41}"/>
+    <hyperlink ref="J33" r:id="rId2" display="Link" xr:uid="{3534C385-06DC-4CA4-9BD2-43314754659B}"/>
+    <hyperlink ref="J34" r:id="rId3" display="Link" xr:uid="{182FB9B2-97AA-4C37-B920-E3964DCD972B}"/>
+    <hyperlink ref="J35" r:id="rId4" display="Link" xr:uid="{F71A0265-955D-4D26-B211-E32D15EE1D56}"/>
+    <hyperlink ref="J36" r:id="rId5" display="Link" xr:uid="{B9C35A18-9E24-41B8-8C22-68FEA326621C}"/>
+    <hyperlink ref="M37" r:id="rId6" display="Compact Powerful Motor" xr:uid="{9EFF2727-C3AB-4597-8B26-0F812CAFC429}"/>
+    <hyperlink ref="M38" r:id="rId7" xr:uid="{605BE8D7-BA93-4401-9D46-9E08E1D04442}"/>
     <hyperlink ref="J21" r:id="rId8" display="Link" xr:uid="{695B4940-C0A7-4809-BDF2-0C233AA6AE26}"/>
     <hyperlink ref="J22" r:id="rId9" display="2x 35mm 6PC" xr:uid="{6B68950A-869F-4FCE-BC1C-F219E055C5B9}"/>
     <hyperlink ref="J30" r:id="rId10" display="With TMC2209 x8" xr:uid="{24787D90-0D34-481E-9743-F212E75A3881}"/>
     <hyperlink ref="J23" r:id="rId11" xr:uid="{D6A1DF84-384D-40FB-BD4A-701A0F364D79}"/>
-    <hyperlink ref="M32" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
-    <hyperlink ref="M33" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
-    <hyperlink ref="M34" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
+    <hyperlink ref="M33" r:id="rId12" display="Gates" xr:uid="{E093F5B4-8BAD-4356-A43B-07E9B513EAC3}"/>
+    <hyperlink ref="M34" r:id="rId13" display="Gates" xr:uid="{49D5B23E-126C-4370-A262-C5184F11CAFE}"/>
+    <hyperlink ref="M35" r:id="rId14" display="Pulley 20 Tooth 9mm" xr:uid="{27F936CE-C292-435B-B7DE-316A6986F2BD}"/>
     <hyperlink ref="J24" r:id="rId15" xr:uid="{A8C5E0F3-B1FB-4E57-8DD8-1DF57CDC1A28}"/>
+    <hyperlink ref="J31" r:id="rId16" xr:uid="{ACB41F0C-D739-4C4C-B9A7-3FBBB0E03C0B}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId16"/>
-  <drawing r:id="rId17"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>